--- a/excel/seminar6/Таблица с данными к дз 2.xlsx
+++ b/excel/seminar6/Таблица с данными к дз 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\gb-study\excel\seminar6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFDC4C6-20B6-488B-AD05-E332A5061B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C187977-5DF6-498C-83D6-C236CA88C817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{6CD39905-ECC9-432B-A108-1907B944A5DF}"/>
   </bookViews>
@@ -16,29 +16,38 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$5,Лист1!$C$5,Лист1!$D$5</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$6,Лист1!$C$6,Лист1!$D$6</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$E$6</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$E$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$C$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$D$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$E$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$E$8</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$E$8</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$E$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$B$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$B$10</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$B$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$C$5</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$D$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$B$10</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$B$11</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Мышь</t>
   </si>
@@ -112,15 +121,33 @@
     <t>затраты времени</t>
   </si>
   <si>
-    <t>Поиск решения показал, что прибыль максимизируется, если перейти на выпуск только мышей.</t>
+    <t>Произведено</t>
+  </si>
+  <si>
+    <t>Поиск решения показал, что для удовлетворения заданного спроса, при производстве будет превышен лимит рабочего времени</t>
+  </si>
+  <si>
+    <t>Для полного удовлетворения входным условиям нужно или увеличить лимит рабочего времени или снижать объемы производства</t>
+  </si>
+  <si>
+    <t>ниже ежемесячного спроса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -188,15 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AF821E-6249-449C-9AFB-93749AC704D0}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +553,7 @@
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -551,7 +578,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -565,7 +592,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -579,110 +606,175 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>64999.999999999993</v>
+        <v>15000</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15000.000000000004</v>
+      </c>
+      <c r="C6" s="7">
+        <v>29000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <f>B3*B5</f>
+      <c r="B7" s="1">
+        <f>B3*B6</f>
+        <v>3000.0000000000009</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:D7" si="0">C3*C6</f>
+        <v>8700</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+      <c r="E7" s="3">
+        <f>SUM(B7:D7)</f>
+        <v>14340</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B4*B6</f>
+        <v>600.00000000000011</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:D8" si="1">C4*C6</f>
+        <v>1595</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(B8:D8)</f>
+        <v>2635</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="6">
+        <f>B6*B2+C6*C2+D6*D2</f>
+        <v>53800000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>13000</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:D6" si="0">C3*C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <f>SUM(B6:D6)</f>
-        <v>13000</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <f>B4*B5</f>
-        <v>2599.9999999999995</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:D7" si="1">C4*C5</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>SUM(B7:D7)</f>
-        <v>2599.9999999999995</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="8">
-        <f>B5*B2+C5*C2+D5*D2</f>
-        <v>51999999.999999993</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/seminar6/Таблица с данными к дз 2.xlsx
+++ b/excel/seminar6/Таблица с данными к дз 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\gb-study\excel\seminar6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C187977-5DF6-498C-83D6-C236CA88C817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F636C473-6558-45D1-AAEC-044ECED54928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{6CD39905-ECC9-432B-A108-1907B944A5DF}"/>
   </bookViews>
@@ -38,9 +38,9 @@
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$E$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$B$5</definedName>
@@ -541,7 +541,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="7">
-        <v>15000.000000000004</v>
+        <v>14999.999999999998</v>
       </c>
       <c r="C6" s="7">
         <v>29000</v>
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" s="1">
         <f>B3*B6</f>
-        <v>3000.0000000000009</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:D7" si="0">C3*C6</f>
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" s="2">
         <f>B4*B6</f>
-        <v>600.00000000000011</v>
+        <v>599.99999999999989</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:D8" si="1">C4*C6</f>
